--- a/src/test/resources/test-various.xlsx
+++ b/src/test/resources/test-various.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\mephistophilus\MyGitRepositories\ears3\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C30153-6416-48C6-B8FB-C989A50343D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C39108-9A76-47AD-868C-F6967CFA1ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="332" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5030" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5030" uniqueCount="337">
   <si>
     <t>Date</t>
   </si>
@@ -1095,6 +1095,9 @@
   </si>
   <si>
     <t>nn</t>
+  </si>
+  <si>
+    <t>11BU_operations_not</t>
   </si>
 </sst>
 </file>
@@ -22811,8 +22814,8 @@
   <dimension ref="A1:AC147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23115,7 +23118,7 @@
       <c r="C5" s="43"/>
       <c r="D5" s="43"/>
       <c r="E5" s="43" t="s">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="F5" s="65" t="s">
         <v>332</v>
